--- a/Employee_Reports35/Mohamed Mufaris Mohamed Jameel Q0532.xlsx
+++ b/Employee_Reports35/Mohamed Mufaris Mohamed Jameel Q0532.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="4" t="n">
-        <v>-32</v>
+        <v>-33</v>
       </c>
       <c r="I7" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="4" t="inlineStr">
@@ -818,11 +818,11 @@
         </is>
       </c>
       <c r="H8" s="4" t="n">
-        <v>-150</v>
+        <v>-151</v>
       </c>
       <c r="I8" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="4" t="inlineStr">
@@ -867,11 +867,11 @@
         </is>
       </c>
       <c r="H9" s="4" t="n">
-        <v>-227</v>
+        <v>-228</v>
       </c>
       <c r="I9" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="4" t="inlineStr">
@@ -916,11 +916,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -965,11 +965,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1014,11 +1014,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1063,11 +1063,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1100,11 +1100,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1149,11 +1149,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1198,11 +1198,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1235,11 +1235,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1272,11 +1272,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">

--- a/Employee_Reports35/Mohamed Mufaris Mohamed Jameel Q0532.xlsx
+++ b/Employee_Reports35/Mohamed Mufaris Mohamed Jameel Q0532.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="4" t="n">
-        <v>-33</v>
+        <v>-34</v>
       </c>
       <c r="I7" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="4" t="inlineStr">
@@ -818,11 +818,11 @@
         </is>
       </c>
       <c r="H8" s="4" t="n">
-        <v>-151</v>
+        <v>-152</v>
       </c>
       <c r="I8" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="4" t="inlineStr">
@@ -867,11 +867,11 @@
         </is>
       </c>
       <c r="H9" s="4" t="n">
-        <v>-228</v>
+        <v>-229</v>
       </c>
       <c r="I9" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="4" t="inlineStr">
@@ -916,11 +916,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -965,11 +965,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1014,11 +1014,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1063,11 +1063,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1100,11 +1100,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1149,11 +1149,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1198,11 +1198,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1235,11 +1235,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1272,11 +1272,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
